--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/62_Niğde_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/62_Niğde_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7622FE6-E39B-4B24-A81D-AC05F69429EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6CA780C-109E-4555-9BA0-4D16A8C2CF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{508A7344-7E84-4CE9-B11F-F4E026BA07E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="679" xr2:uid="{B709F10F-6D9E-401D-96E9-AB68D1C0E61A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -982,14 +982,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{49A49882-6F0F-4BF4-A7DE-FEC6070660C2}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{48BE7A59-F4BB-4B30-BD5E-9BE9BC6A5AB1}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{8A3414FC-1841-4CEC-90B8-0C702CF84DF7}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{58AEB6D9-0F95-4D1B-8991-F70F385BBD58}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{A524475F-5954-4249-95FB-2F9BD3C24BBA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{439911F8-02D6-4A56-9141-C18EBAAA9525}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{A728AE08-02D6-48F3-9AC7-01156E9C577E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{DB5D0B5E-6EB5-4CD5-9F73-582096509E69}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9750FB47-6D68-47C3-9139-1D2CBE375F15}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5F456FC8-94CC-498C-97F5-051AFB40EA79}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4DC762CF-CC38-4FCF-A1D8-AD7138551D9D}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{94BA0640-DF7E-4FEE-8F31-133C108F7A19}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{DC78D9FA-BA5C-4A19-968E-0793F60CDD82}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{0DA30313-0014-44CF-8361-A6A289E40352}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{D962AFC6-ED64-4E22-8227-62CB2209AB50}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{42FEF66F-EE6B-45ED-AA1D-5975205E6E15}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC12C5A1-B673-4C6D-9B3A-3E4BAB58E230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB014CA-4F79-4305-8892-ADC6F9E35E88}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2624,18 +2624,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76674EB5-0322-4FD0-BF27-27AAB93A7595}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{036D51DB-8BB5-4C5C-9913-542FD67F6564}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{10C911A2-085E-4AAD-B2DE-D2DA867BF452}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{978FB80D-2193-4EAB-86D1-BFED6C366CD9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{017FD8B4-F8D0-46BC-96BC-EB06B27E5179}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CDE68D06-26E6-40B7-A1EF-FA8CCA0DD295}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0ED889B9-A878-4136-A8B7-8672A5871CEA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FEB142EA-62A6-40B6-B038-4131C2A7E5ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BB7F82F1-968C-46E8-A00C-6D81F9F38205}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FBB23F31-17FB-446A-BAEB-4D9125A99485}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9A9E71F7-0473-4BAA-98B9-E5821BF46C7D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C4A9F181-378D-43B7-A393-42D82D372E5A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0AF7C0A8-095F-4229-83C4-44CD0466141B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{315C7939-22AB-4F39-9EDC-D4ADD4C899DE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{092EA21A-7E17-4DFC-A0C5-20918441F737}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4BE0645C-E8FE-4DDA-A902-D049CA3815B2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C7EDE06-FD62-4F6F-BCAE-E61DA0D453EE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{58359C4C-C68F-4352-AC71-872F660DD6A3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4AEF69FB-DBF3-4F86-812E-6C30F71066B8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9646C53-3D5F-41C7-B89B-9EC1CDCB5C51}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{088AEF8E-2847-4E8C-911C-DBAD84084214}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1D14250A-44E8-4764-B904-BC0AA2FC8768}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8E31927-8CED-4FB4-B598-5AC128240032}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{564F9675-643B-4047-8256-48215AC9E2F9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2648,7 +2648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F309075B-10F0-4029-8FAA-5D1BCA3F6461}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0C706C-0CB0-44D3-9DAB-DC935244B74E}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3890,18 +3890,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3FBF5B3-CF08-4541-AB57-6A17EF36D703}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{158C2FFC-E899-437A-B649-4676A58015BD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{07572AA1-BBBE-4E78-8C72-A8DE238D75C9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{90D4B6DD-3DF7-483C-99E1-68D76AAEFEAA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{80F3089D-2C28-477E-A6D4-948589C7D685}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5F0175C0-7E6B-47E3-8931-CD8F5D7E9E60}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89DA5A0E-5F19-4504-AA91-FFDBF7515C94}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4CD083C2-65B0-45E9-96F7-FCE84354D8E5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A0B19B4A-D7D2-4176-8642-FD7B5C7FB497}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0A79E47F-F7A1-4A91-AB70-FE49A9803FAF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{65E1BCC7-6890-44DC-9A14-4BEE259DECDB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3606E190-4E6F-49D5-881D-6C981BBACD4D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8C83EA2-3206-4A5F-A403-1C491C00DA1B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{412B1736-A0F3-475B-AF47-B77BDCB866C3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{34F4CA71-E4BF-4715-8B43-CE79026158B6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{348F57CF-72BE-4DA4-9BAB-7860762F682D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DFFD51E9-747D-466A-BD53-C70D1862A770}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1E075FC7-B103-455C-94F7-E1062CBD254B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5D5BCF3-6C25-45A3-9838-431FB581FC58}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C5B7A421-C6A6-40D8-B28A-554FDD21758F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF773738-5D4D-470B-A813-9905BFB2DB27}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{276174C4-ACB5-41AF-AD23-81347FE1F4F0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A81791A-A8B1-403F-ACE2-3FB8B603EB88}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA1D4087-5C96-4BB4-86A5-BFA2DCFB7DB6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3914,7 +3914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77109BC4-2513-4A87-895B-9F367357998B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727D0A8F-3D67-47AE-AB9F-03E2B48A9EB1}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5156,18 +5156,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6F6032C-D694-4981-B68A-898EA9307D05}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5A52E059-F0B4-4A7A-8D6C-4410F0BF5F93}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6C55DE1A-8F08-4C37-9D16-B12CE77B9113}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F31699E9-2BEB-4147-A7F7-19FAEC01189E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{709803F2-CDA3-47C5-A73D-200C64993D0A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A131F513-F50F-408D-8A25-742877CB06A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC299E9B-2564-48C8-86BE-F13A587FA61B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05E26887-3B8B-4B64-8AE4-0AD048E1DC80}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0F869F91-ABF1-4C83-AB91-6CDC6CBAB0C7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B9C8C564-7086-4CAB-8CB6-34B0985891D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30C47926-B684-405D-A4C3-52FEE48C61AC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3780460B-FB30-4346-BFBB-00694510EA75}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF2CEBDB-512D-4605-BB57-593CA0920327}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0750CA0A-4239-47AC-9888-5702B5B56FD9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CFE9CDAD-20EC-4915-8096-11E5591E7F84}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9A5ABC72-2C6D-44C1-AA67-0F7CBA128D0D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD549374-2ABE-451A-B1DF-3E81105D49FF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5B5735B4-F793-46F9-9A91-012515A3CF5F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B54DAEE-2C72-41C9-8E2E-A29E6E69D82F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3338B4AD-4085-452E-B249-D52BA5DD8B42}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{71020C75-3175-42AF-971A-611A49C03542}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D4320025-A120-4A3E-B166-79BF00971A9F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5F14F83-7AED-4103-8669-4C13BED6C655}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F5B31C9-AE82-4972-9E57-6ABC77B00906}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5180,7 +5180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA077BB-5DEC-4A90-A19A-F4A1C4F35433}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBE8494-A8CD-4765-B4A0-E477970AF469}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6412,18 +6412,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F038E6B9-88D8-4045-B86D-B7F5208B1282}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90D08009-C362-4265-A4C6-37F1C802EF38}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E46B9BB0-0FAC-4FA0-AB53-1582B007B980}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9DC86022-0E3D-4BDC-9D8D-FFD151EE9D0D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6BD93A94-A766-4848-B89B-59A700D3A6F0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FEB422CA-2AF5-424B-8A26-318E46807590}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EF51139B-6FA0-4EE2-8608-9EBDE81C58CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{775ADB45-49D2-4EE4-9192-B11B2014BED0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BA186F5-168D-4B77-95A6-96266DEF5760}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EE59C03D-7B28-494C-A6E6-76F623B380D3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{73EC4A54-B914-4D07-8ADA-8C564B337A59}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB1014E5-90F4-47CC-B8AC-5455CE8E2774}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FBBCC752-7361-4AD5-816A-409077FC8677}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D64214B-005D-44BA-AA88-8D18665DF4B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0449C04B-5B32-4E8D-9FDF-A5FA7F2E9A63}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9314E1B0-40CF-4601-BBD6-44A5F41F1376}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E50BC1A1-0DBB-4E9D-B130-413822DE47BE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4325649A-5BC1-4B4E-9348-7CDC33EDD238}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9508C176-379B-4394-B42E-81B5C5175E17}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65A751AC-374D-4383-8CA2-D92FDC48172A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D77AEF6-8E2E-4035-9C4C-3CF40BB28058}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AAB9DBE3-0695-4087-9EFA-6940F10BAD24}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72927844-193E-47F2-B330-30634AF099F9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{45AD58E8-C399-4CAC-9558-6C96846433F1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6436,7 +6436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DFC0B5-6E87-4F6A-97C2-E3D19F516CA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57D5322-924D-42FF-B8BE-A57296C92B1F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7701,18 +7701,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6902A2A5-DEA4-4594-A65D-7830D89923DF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0F63E38-7967-43E1-BE20-98A1DCFA0109}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6C5DDCE7-14DC-4D18-BFE0-3840DB79B15B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B9AB598-F515-41B3-AE41-0FDD9665729D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{15B05988-8744-451E-9508-E68C2A89FD26}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A75B1ED3-825E-4472-9CE6-1919B343F535}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F530A90-922C-4136-A8C4-95A73E1F63A8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F3AE2A9-149E-4A5D-8A0F-AA021A101998}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{867B1CF8-EE67-46B2-8D62-450845CE8F34}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D544637C-244C-43CB-95B8-72244BB45B82}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{901EBFFF-3BD8-494F-AE39-4EEB6E6FA0EB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6DCEFBB2-8A87-44C7-B881-1F62D3834528}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{86A70769-AD56-4AE9-8BDB-6FE9B21E9402}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C0A55DB-715C-4C65-B8E2-544340C6A7B7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{65321A72-2EE5-4720-8FD6-03FA087ADD61}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FCDB89F1-0A28-4D4D-9BA7-AE334B50B306}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{85A4FAE5-70E2-48B4-B737-EB1904047197}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{266BCB1F-70A2-4B32-865E-904A96DED645}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F86E59D8-E17D-4735-AAAB-E8B000BF7B3F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{037644D4-DC7D-4DAC-8024-FA9FDB7E1F02}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2CD4BEF5-31F5-4176-ADC3-C6A03052764B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D225F6AC-B94E-46E2-B330-E18B1636B49C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34C170C0-F1A3-4A86-AD07-4D9184746587}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E9F8648-3170-42D0-AEBF-B5DC8DA1F802}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7725,7 +7725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A9E5AD-F2AD-48F9-9452-47BEE405DA82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44ED4A84-C5CF-4494-93CD-4E8A893267B3}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -8991,18 +8991,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{165866B0-4E25-4229-9F28-3C5B7E11E95F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3ABC9B3-41F0-41A7-9EEE-72689FB60D68}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6539B6CB-D47F-4443-93F5-C327AA4C8E4F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87D749D5-11D5-41A0-A6D1-B2EF2BB8C3C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A3D07A94-1C98-4EDD-B229-10997B617E4D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{96BC052A-8841-48E4-A469-00FE30AF5F5F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F23018B4-F463-4E1E-88CB-46E6665BDD25}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78EABAEC-CBE4-4D83-B4E0-6C47ADE5B595}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6F2E58F5-117E-4EFE-B230-30D6BAADBFEB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4970A90E-D81B-49FB-B6C2-9C0AB9777093}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F306D644-2799-4B09-877D-A6A5773AD65B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8763E98-A04C-4996-BA88-462546EFF43B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B3388A3-06D9-4349-B21D-80F06DC6684C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0188B27B-F949-4EB7-9382-DE7BEB4381BA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7EA55164-DDFE-491F-A5D5-4438179477FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C06825CF-1ABC-4E1B-8F7A-635B52D739C3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE5EA4A2-98FE-4051-BB58-3FDD31232BDB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A8442BB2-E37E-40DE-A0EF-37B7EDC799BB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC511778-E562-43C1-97CC-A9AAF353F83C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A2E4758-85A7-419B-835A-D88C55A03A03}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52136C93-6B53-40C5-97A1-187085492A76}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DF9720A2-64D4-4CA6-808F-B13E3A9F6B55}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7FD2735-1EB0-40C5-91A3-BC0F91A300A6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A1BAB784-6F23-45E3-9EE3-B822995CC52D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9015,7 +9015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD31635-854E-45D6-9E28-2668975D823F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26DCD70-D963-40BB-B25C-75C17047D965}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10281,18 +10281,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59A6BD60-18DB-4603-91BB-8BFA793F50ED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EB55E000-501E-45E4-B1A4-A44EC770E2E0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D5EE2A0B-9596-4D3E-8CE5-793D6D72071D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A9336E0D-C575-490E-8159-7E36B9D11BE5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7CE8DE1-E7F7-4812-9D0E-88A1100EA3C9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9CBFD2F4-AB36-4D42-B8AC-ACE11F8830CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0495295C-C2FC-4490-829F-258A6C9A8462}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1EDEC6D8-8EED-4A66-B3FE-E93D7F0A7072}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41BF4371-B50A-44AD-B639-1760C77434EA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{359BB64D-0C1F-43BE-B798-8F13CA443DDB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1A4B9BB-C7EA-40D4-94AC-4CB8781FD863}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EFC6AEBF-67B4-4316-9FAE-BCEA64D4ACF2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67DAEBAF-1B24-4A65-87CD-D87D3062816F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{124B9224-140D-40C5-AFEB-FF4F37837077}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7836DAE2-00E7-4F83-88D9-355F576F7063}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F5A8EE18-9E58-421D-8991-649450D6510D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F8238CF6-B480-47B5-9BB2-C31B43160C86}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C25E017A-2341-4ADC-95F1-B1646B05ED84}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{05070AF5-64D5-4ED2-A854-69ECA06D1201}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{64EB6FB8-A151-4831-B6FF-422E2735680F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{504592FF-207B-4193-A39A-6DD1A3766EE9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CA812ADA-FFDE-46B2-8C1D-3E7755225F35}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0DE299CC-52A1-4C74-AFEE-A7AE6D26F0F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1405E178-1453-47F5-8253-1A32EEF551F4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10305,7 +10305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25641752-68DE-476A-8EAF-46D846C0D367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734527B9-358F-43CA-B7F4-8741EEF038E5}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11567,18 +11567,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4AF9DA2F-031A-453F-B71D-94F81680BB40}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9B429AD4-272F-4A85-B38B-0D7F689C9E78}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5EEDEC16-5BE9-410F-90F2-22FBD61FE4EF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FD96D5E9-18B4-4C27-902E-43F91CFED5C2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A3FB7960-C508-42ED-843D-0D204276BA4C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{92E39F2E-007D-420D-AEEC-4E34219E32DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4AC9930C-ED13-4ECD-8236-418590B66621}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57C6ADF1-6BC3-4435-A599-0BA9741F9A5C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D075665-A26F-4F72-9E58-7317A11C3184}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FFC2733C-C8D7-4EC2-BCB0-1A8419CDE43C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21297B05-3C23-47E6-93C8-028EEA893D8C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{42C0C3EA-9300-4D35-A43B-4FE51DA5CE39}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C67AC053-E7EA-482A-930E-FF8F8DC33F07}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{385D6366-110C-40A7-944D-C2760DFEDC10}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{19230002-459D-4B75-919A-CC7B8DF6ADB5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{31B5E734-38D5-4CC1-8551-931A7A0D6063}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0A6E8D8B-798B-436A-854E-0B6C157B1649}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9302D2A0-8508-4807-B7A4-9810D1187B1C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{340946AF-68B7-4E97-9BCE-B6A2B4BA3713}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FFE31437-054C-4BB7-A00F-881F0CEE38E1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B28969E7-62F6-49B7-ACAB-5926B5B2121D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{37C5968A-C735-47AB-AE1E-E0E7185D69FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83CF191F-B2DA-4258-A1AA-C6EF441115CF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{42B73438-FEF4-40F2-A0EB-12376CB9425B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11591,7 +11591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C8901B-9F1A-4717-9176-0EA2186D2F8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49457016-D61F-4975-86A9-8C43148F3DDD}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -12845,18 +12845,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3826852-637D-4CAE-B43C-4E746EC46430}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F24BAA3-D182-4104-917D-E6A602D08184}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{63B14180-B15D-4697-A1A8-05C75DD70FC1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94DD7AD7-4EF0-4A48-8157-10EFCF5DA0D6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2793049F-AD72-45DD-BB18-E6CB8EF4AA19}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{709DC544-127F-4FED-927C-746072A503AE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D4B5E89-3E35-4406-955E-6E9BF7D9465A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8BF4F52-27ED-409F-9CC0-607A10235AC8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{72A8D9A5-2E21-47DD-A6B6-554B2ED7D6AB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{89B96815-DDF7-4C46-9C43-7D74DBFEA9E9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC2B903A-830E-4DFE-B14C-213AB407469E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EE93EC41-EE5B-4F1F-B0D5-86B5DA297A79}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7C6370D-F48E-498B-8E0C-E345E6F28FA7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D8B2EB2-0DA7-45B6-A3A2-877A33C18168}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3296428A-ACA1-45B1-B1D8-B5DDC53F2C41}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73ADCAC8-BA59-4605-9D94-C0C02ABE5569}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5893E045-B6BD-4C30-BBCA-B3406F14C3B2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BB2FBDEE-0EFD-40B8-829E-DC75D2471BE1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E85DF080-8190-499D-8BFC-4BDA60CA236F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B244939C-998B-4213-B42E-23B3D02D09E1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BE5F16C8-3032-4ECE-8848-9A9ABA57B4F2}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{36A2216A-23B0-4290-A837-BFD74983578A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56B0468B-DB02-42D3-B93E-41AD09853C2D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0296C903-1E29-4DF7-AF3A-82FE0BAD340A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12869,7 +12869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19595C52-6A47-442D-A3DC-ABAFC3C2547C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D08F0-9D8A-4851-BA85-F1855883EEB8}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14111,18 +14111,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83DF1E18-0879-4387-A1E0-748661A1ABFB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{348C109D-3A06-4BC7-9603-80CF188E8081}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BDD36A3C-D5DB-43C3-8EC1-37936886AD7A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7AAC9395-A468-44D8-B695-25C224C46420}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2F09AD27-A0B3-47C6-AEDD-D6EA67322549}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6B54870E-E3E4-4A31-9632-C254DD897BA4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9E42876-ACA8-4027-81C2-38CB69A1944D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{79B0970D-3296-4C52-AC45-328CB1A2E4D4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B9F0D5C5-9CCF-46FD-AABE-CAB5CDBB1802}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{96216C97-C9CD-4610-899A-B39C67A6380F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D752116-EA32-46C9-84DA-CF64A6AF2951}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{744DC4AF-F9C4-4081-BE52-76A60E7693A2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1A8405D-AA4E-4978-9225-D0316F848849}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C586DC54-211B-4037-AD9B-3545CEFCC357}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6DF3153A-9F8C-486D-9010-C0116105CFFC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B6798AF4-37FD-420A-98B1-489C891F67D8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{606F3FA9-7D59-46FD-A116-BF9AADED4ECC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{61DF4408-61C2-4A5A-8D87-BF0859FA0343}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4F5CC1AD-0D33-4DD7-9CE2-3AD755CC7F6D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72F72C15-B4BE-4A88-A3F4-0F3EA01D2E25}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE304D3A-F59A-4BEE-8999-5121982A774E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C5CA3579-ED62-4CC6-99A7-C6425A51AB7D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6844DF50-87C2-4D52-B89E-03AB2243890A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8BF08DE1-1A37-413B-8315-A39A20E833E1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14135,7 +14135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F995E62C-8B2D-45E6-8444-ECE66D08F577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9F9F7A-39FE-4391-B032-9943DC9E05B5}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15377,18 +15377,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{224F0E30-7DF6-43C7-B0E0-B70D7CC4E4AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8CCFB279-0780-42E9-BE03-E6E0447D8433}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BD154083-C98D-4270-A180-1AF1414A080E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{43512AC9-FD7E-4FBC-8188-1695DD715735}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F129E0A9-114F-46F6-83CD-9B7872028F1D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4EB2936E-8604-449A-ACB0-861BFAE098AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F6DDF0B4-BE8A-475A-9C14-4B5F9F152DBA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CCAE0896-7C81-470F-B886-812A068361F4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D9F09B9-5526-4AF8-A476-B845AA601873}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7DFC08B7-3161-4DF8-85BF-CC8915272AF6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0085206A-24CC-4554-BBB8-F36BB8E3F4C9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F5DF3329-B63D-4962-AC41-B3976FBA4521}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F0FC7B2-AC6A-46A9-B331-4B619F067FC9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D39D2D1B-2947-4173-B786-F29A92B91C94}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7A41FF39-6A3B-4BEB-B359-DA3E61CF6EEC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1C5D2083-A8FC-4448-9E17-402AB188D396}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B951A303-C4D7-4C74-9C7E-756F9B1883A9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DA516C11-B948-40B5-A4DB-10A4484E63F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{29F71DB9-9F3C-418B-BBD4-8EBBFF4C3991}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AF391E2-1EE0-4C1A-81D8-E14BFE3B18C4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{501CD719-90C3-4569-A53B-A504CE1D3924}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9EC9BBB2-1870-4BBF-B62C-EFB57BBD5564}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DDDD9D9E-7D58-44A1-9793-43B2322C75C0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4CDC0E3B-5B66-4414-B6D0-62062412482A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15401,7 +15401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBB23CC-EFE4-4E63-8457-353BCE1ADB99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F9807C-6DE2-4167-BE9D-B217DF96E547}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -16643,18 +16643,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{73BB47E6-CD4F-4CBB-AA43-93C00D55C93D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{09D0D7B8-3509-4555-A8B5-A7D5FE39E64E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AE457F24-2849-4964-906A-A2EF19DF35CB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1A4C78E1-C64E-4915-BF16-05BB67DF2F79}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3BB8099D-B1E9-4FD4-A0AC-60A8782004E9}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4CA3AE9C-59A0-49CF-BD30-45338F8C92C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3102817-9624-4A4C-B03D-325DCBE7FFD7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D979F85D-AEBC-4750-B4D5-7A0BFF18A8BF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F2A2513-B4CF-4A93-A1B9-14FB496FD937}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A3B28043-C7BF-4944-BF80-A9FFDCEC0158}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6B45694-786A-4B95-A64E-85A301EA39AF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FFA7F955-9DD1-4AC7-993A-DD5A90F3B5D1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E3FBA79F-CAAF-4C36-BB10-94453EBA5378}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DDBC904B-F8FF-4C98-8234-C9E6E020DBEC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{03CAAB44-E5C2-4C62-8597-30DEBF5DBE77}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6624B597-207F-4F48-97B6-75A870198DAA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82BE0801-7071-4B82-8388-AD4BBA8A53B2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3BDD1CC9-A837-49F0-8170-626086A01E32}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8830C769-E783-4EC8-B789-78B34F2486BD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8A44BAD-B469-4C63-8CE6-6EB2DD146D13}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4ADA5A2-FB56-40C5-8C9B-3980EACA5CC8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{35E6E714-1449-4F0C-A7D3-98A5AE093720}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1FEA925-F99B-4506-A6DF-6FAB207565A9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86BF0291-6AD2-4BB1-920F-3720B8FF955F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
